--- a/data/trans_camb/P25_8-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P25_8-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,37</t>
+          <t>-4,45</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,91</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,49</t>
+          <t>-4,94</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,97</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,9</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>-2,09</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-1,78</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,57</t>
+          <t>3,47</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,45</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-3,25</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,09</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,76; 3,28</t>
+          <t>-11,91; 2,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 7,53</t>
+          <t>-8,18; 6,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,26; 13,95</t>
+          <t>-12,76; 2,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,03; 3,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 15,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 6,51</t>
+          <t>-9,77; 5,19</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,22; 2,61</t>
+          <t>-7,29; 8,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 10,36</t>
+          <t>-5,89; 12,55</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 8,27</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-8,32; 2,14</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-5,65; 5,22</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-5,52; 7,62</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-14,04%</t>
+          <t>-37,34%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>19,65%</t>
+          <t>-3,12%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>77,01%</t>
+          <t>-41,43%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-10,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>26,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>-10,92%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-12,25%</t>
+          <t>2,63%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>24,59%</t>
+          <t>18,13%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>23,7%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-20,36%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0,38%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>0,55%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-54,7; 51,25</t>
+          <t>-68,59; 34,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-34,2; 111,07</t>
+          <t>-46,23; 85,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,49; 193,88</t>
+          <t>-79,66; 41,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-36,64; 28,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-11,93; 99,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-28,52; 44,26</t>
+          <t>-40,99; 38,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-37,11; 23,05</t>
+          <t>-30,36; 58,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-10,35; 80,57</t>
+          <t>-25,28; 87,79</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-10,19; 67,54</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-43,38; 17,04</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-28,15; 43,98</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-30,89; 58,11</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,4</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,74</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>3,15</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-4,93</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,79</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,58</t>
+          <t>-4,96</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-3,21</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,63</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-3,47</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1,18</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,82; 3,48</t>
+          <t>-7,66; 3,4</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 7,94</t>
+          <t>-3,07; 8,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 6,12</t>
+          <t>-2,75; 8,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,97; -0,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 8,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 7,03</t>
+          <t>-11,52; 0,77</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,76; 0,13</t>
+          <t>-6,64; 6,71</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 6,03</t>
+          <t>-6,93; 5,73</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 4,24</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-7,64; 0,81</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-3,09; 5,62</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-3,8; 5,74</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-8,84%</t>
+          <t>-10,71%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17,33%</t>
+          <t>15,64%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>20,08%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-20,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>11,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,69%</t>
+          <t>-19,16%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-16,29%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>13,32%</t>
+          <t>-3,34%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-16,54%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>5,62%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>4,7%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-32,22; 26,49</t>
+          <t>-40,71; 27,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-12,38; 62,24</t>
+          <t>-15,92; 70,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-22,89; 45,0</t>
+          <t>-16,38; 65,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-37,17; -1,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-8,92; 39,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-13,89; 33,69</t>
+          <t>-38,38; 4,01</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-30,93; 0,86</t>
+          <t>-22,09; 29,87</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 33,19</t>
+          <t>-24,47; 25,49</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-16,12; 24,1</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-32,88; 4,7</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-13,39; 29,78</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-16,29; 31,53</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-5,2</t>
+          <t>-5,52</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,78</t>
+          <t>-4,32</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,6</t>
+          <t>-3,3</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-5,24</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,71</t>
+          <t>-6,47</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-5,22</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-2,6</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-6,01</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-2,41</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-0,82</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-11,12; 0,34</t>
+          <t>-12,82; 0,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,56; 3,1</t>
+          <t>-11,61; 1,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,03; 3,53</t>
+          <t>-11,89; 4,43</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,52; -0,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 7,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,37; 5,23</t>
+          <t>-12,75; -0,32</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-9,48; -1,18</t>
+          <t>-6,49; 5,68</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-4,89; 3,68</t>
+          <t>-5,23; 8,83</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,14; 2,49</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-10,72; -1,38</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-6,72; 2,21</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-6,32; 4,0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-23,83%</t>
+          <t>-23,65%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-12,73%</t>
+          <t>-18,52%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-16,52%</t>
+          <t>-14,13%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-23,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>7,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-7,76%</t>
+          <t>-26,47%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-23,8%</t>
+          <t>-2,55%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-2,06%</t>
+          <t>5,96%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-11,85%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-25,14%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-10,1%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-3,44%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1601,84 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-43,17; 2,96</t>
+          <t>-45,14; 4,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-37,66; 17,45</t>
+          <t>-40,44; 10,27</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-45,37; 17,78</t>
+          <t>-42,64; 22,92</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-42,47; -1,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-15,27; 38,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-30,48; 27,2</t>
+          <t>-44,76; -1,43</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-38,18; -5,86</t>
+          <t>-23,43; 27,25</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-19,22; 18,99</t>
+          <t>-18,64; 42,83</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-30,25; 11,75</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-39,44; -6,2</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-25,58; 10,86</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-23,54; 19,12</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,86</t>
+          <t>-3,0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>8,15</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-4,44</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,79</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,15</t>
+          <t>-4,72</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-3,67</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>8,1</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-3,87</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>8,08</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,16; 0,11</t>
+          <t>-8,1; 2,18</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 4,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 4,14</t>
+          <t>2,43; 14,58</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,42; -1,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 6,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,61; 3,27</t>
+          <t>-9,39; 0,37</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,8; -1,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 4,4</t>
+          <t>1,94; 14,04</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 2,59</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-7,24; -0,27</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>3,98; 12,39</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-17,26%</t>
+          <t>-19,95%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>54,24%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-20,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>12,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-0,7%</t>
+          <t>-26,26%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-19,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>8,98%</t>
+          <t>45,04%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-23,48%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>49,02%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,434 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-32,78; 0,77</t>
+          <t>-46,12; 17,46</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-15,49; 30,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-16,62; 28,2</t>
+          <t>13,9; 118,63</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-30,93; -6,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 31,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-15,0; 16,22</t>
+          <t>-46,99; 3,93</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-28,44; -7,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 24,12</t>
+          <t>9,1; 84,53</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-11,29; 14,49</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-40,14; -1,72</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>21,69; 84,45</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-3,2</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,38</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2,33</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-3,88</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>2,17</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>3,42</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-3,55</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>1,29</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>2,88</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-6,22; 0,01</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-2,89; 3,79</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-1,18; 5,77</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-7,03; -1,08</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-1,07; 5,36</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-0,16; 6,84</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-5,61; -1,48</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-0,96; 3,57</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>0,55; 5,47</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-19,22%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>2,27%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>14,03%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-17,86%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>9,99%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>15,76%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-18,47%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>6,7%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>15,0%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-33,39; 1,2</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-16,01; 25,57</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-6,33; 39,36</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-29,53; -5,19</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-4,44; 26,87</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-1,0; 32,91</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-27,73; -8,14</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-4,86; 19,76</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>2,63; 29,96</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
